--- a/Excel_Data/1.xlsx
+++ b/Excel_Data/1.xlsx
@@ -466,11 +466,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="486350784"/>
-        <c:axId val="486357856"/>
+        <c:axId val="560579616"/>
+        <c:axId val="560575808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="486350784"/>
+        <c:axId val="560579616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -513,7 +513,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486357856"/>
+        <c:crossAx val="560575808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -521,9 +521,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="486357856"/>
+        <c:axId val="560575808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="2.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -572,7 +573,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486350784"/>
+        <c:crossAx val="560579616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1510,7 +1511,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D19"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
